--- a/medicine/Enfance/Andrea_Molesini/Andrea_Molesini.xlsx
+++ b/medicine/Enfance/Andrea_Molesini/Andrea_Molesini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrea Molesini, né à Venise le 23 décembre 1954 (69 ans), est un écrivain, poète et traducteur italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient le prix Campiello en 2011 pour Non tutti i bastardi sono di Vienna (Tous les salauds ne sont pas de Vienne)
 </t>
@@ -542,12 +556,14 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Prince Aznif [« Aznif e la strega maldestra »],ill. de Catherine Rebeyrole, trad. de Diane Ménard, Paris, Éditions l’École des Loisirs, coll. « Mouche », 1994, 91 p.  (ISBN 2-211-03381-4)
 La Sorcière de Venise [« Quando ai Veneziani crebbe la coda »], trad. de Diane Ménard, Paris, Éditions l’École des Loisirs, 1996, 112 p.  (ISBN 2-211-03483-7)
-Tous les salauds ne sont pas de Vienne [« Non tutti i bastardi sono di Vienna »], trad. de Diane Ménard, Paris, Éditions Calmann-Lévy, 2012, 355 p.  (ISBN 978-2-7021-4399-5)[1],[2]
-Le Printemps du loup [« La primeravera del lupo »], trad. de Dominique Vittoz, Paris, Éditions Calmann-Lévy, 2014, 274 p.  (ISBN 978-2-7021-5466-3) [3],[4]
+Tous les salauds ne sont pas de Vienne [« Non tutti i bastardi sono di Vienna »], trad. de Diane Ménard, Paris, Éditions Calmann-Lévy, 2012, 355 p.  (ISBN 978-2-7021-4399-5),
+Le Printemps du loup [« La primeravera del lupo »], trad. de Dominique Vittoz, Paris, Éditions Calmann-Lévy, 2014, 274 p.  (ISBN 978-2-7021-5466-3) ,
 Presagio [« Presagio »], trad. de Dominique Vittoz, Paris, Éditions Calmann-Lévy, 2015, 190 p.  (ISBN 978-2-7021-5749-7)</t>
         </is>
       </c>
